--- a/Team315-bin/ResourcesTileSet.xlsx
+++ b/Team315-bin/ResourcesTileSet.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ResourcesTileSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -102,11 +102,164 @@
     <t>graphics/TileSet/Field_01/field_01_23.png</t>
   </si>
   <si>
-    <t>graphics/TileSet/Field_01/field_01_24.png</t>
-  </si>
-  <si>
     <t>graphics/TileSet/Field_01/field_01_08.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_01/field_01_24.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_00png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_01png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_02png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_03png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_04png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_05png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_06png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_07png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_08png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_09png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_10png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_11png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_12png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_13png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_14png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_15png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_16png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_17png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_18png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_19png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_20png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_21png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_22png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_23png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_24png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_25png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_26png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_27png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_02/field_02_28png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_00png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_01png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_02png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_03png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_04png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_05png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_06png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_07png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_08png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_09png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_10png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_11png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_12png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_13png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_14png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_15png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_16png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_17png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_18png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_19png</t>
+  </si>
+  <si>
+    <t>graphics/TileSet/Field_03/field_03_20png</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1143,7 +1296,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1271,9 +1424,409 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
         <v>0</v>
       </c>
     </row>
